--- a/data/Mentor_Data.xlsx
+++ b/data/Mentor_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Admin/Desktop/MyDocs/QMentoring algo/Mentor-Matching-Algo/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC21F98C-5484-D347-B1F0-C2BC2552AEAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C032CB97-A51B-2D44-93B4-E3B37EC8DB5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
   <si>
     <t>1. Full Name:</t>
   </si>
@@ -109,20 +109,77 @@
     <t>Mohammed Azar</t>
   </si>
   <si>
-    <t>Hamza Naeem Udin</t>
-  </si>
-  <si>
-    <t>Alisha Weys</t>
-  </si>
-  <si>
-    <t>Obi Bineido</t>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Bsc Chemistry, 2010, MSc BioChem, 2013</t>
+  </si>
+  <si>
+    <t>Bsc Computer Science, 2010, MSc Cyber Security, 2013</t>
+  </si>
+  <si>
+    <t>Bsc Chemistry, 2010, MSc Business, 2013</t>
+  </si>
+  <si>
+    <t>No Preference</t>
+  </si>
+  <si>
+    <t>School of S</t>
+  </si>
+  <si>
+    <t>I do speak Urdu, interest in statistics.</t>
+  </si>
+  <si>
+    <t>Business Manager</t>
+  </si>
+  <si>
+    <t>Lloyds Banking</t>
+  </si>
+  <si>
+    <t>Banking</t>
+  </si>
+  <si>
+    <t>Support with setting up or growing a business, Planning for the future and goal setting, Building a professional network, Interview practice and preparation, Finding work experience (shadowing/internships/part-time work), Developing entrepreneurial skills, Support with setting up or growing a business</t>
+  </si>
+  <si>
+    <t>School of X</t>
+  </si>
+  <si>
+    <t>School of Y</t>
+  </si>
+  <si>
+    <t>programming</t>
+  </si>
+  <si>
+    <t>Software Developer</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>BAE Systems</t>
+  </si>
+  <si>
+    <t>Tech</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>Planning for the future and goal setting, Gaining insight to an industry/profession, Building a professional network, Writing/improving CVs, job applications and covering letters</t>
+  </si>
+  <si>
+    <t>Interview practice and preparation, Finding work experience (shadowing/internships/part-time work), Developing entrepreneurial skills, Support with setting up or growing a business</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,6 +191,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -165,10 +228,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -507,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:Z4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -627,30 +693,93 @@
       <c r="A2" t="s">
         <v>26</v>
       </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="T2" t="s">
+        <v>46</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>27</v>
       </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="R3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="T3" t="s">
+        <v>45</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="E4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>31</v>
+      <c r="H4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="T4" t="s">
+        <v>38</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
